--- a/id/谢世骁.xlsx
+++ b/id/谢世骁.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82ED34E-35EE-4F2C-B16B-24CBCD3482DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" tabRatio="703" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="703" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -51,12 +52,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>作成者</author>
+    <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +68,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -386,7 +387,295 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{9989673F-2003-4E59-A6F4-422F2DC62413}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+·获取来自服务器的返回值。
+1、授权的产品组ID
+2、商品ID和商品版本ID的初始值。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{DAD81392-4FD9-4E0D-850D-BD8809571083}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+显示设定了取得的值的画面。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{B6EBBEDE-2C78-44BE-9026-95A01815344A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+[参数]所选商品组名称的ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{CCB2B147-CA96-4AEE-A132-A60A25E2B536}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+根据产品组名称的ID检查产品主表中的数据。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{CCBF46B3-E088-4203-8977-CB8236CF0075}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+在产品ID的下拉列表中生成一个返回值。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{8CCD2403-A4A8-4D44-BFEF-6469CFD47DC3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+所选产品编号</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{09B65F60-B398-42C1-8DB3-EEAF39452E6F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+根据产品ID检查产品版本表中的数据。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{766D2B54-C0B3-486C-8454-E4878B3761E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+在商品版本ID的下拉列表中生成返回值。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{628B2817-8706-4D3E-BDA8-DEE9041E9320}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+选择的以前产品ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{9F0090B8-A064-4724-844D-0BA98EB93896}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+根据先前的产品版本ID检查产品版本表中的数据。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{F65E8C8D-166E-4D1D-BFB8-E7631701C940}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+在先前产品版本ID的下拉列表中生成一个返回值。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -397,7 +686,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -449,7 +738,7 @@
             <charset val="128"/>
           </rPr>
           <t>理
-1.</t>
+1、</t>
         </r>
         <r>
           <rPr>
@@ -459,7 +748,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>检查您</t>
+          <t>确认</t>
         </r>
         <r>
           <rPr>
@@ -469,129 +758,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>是否具有</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Malgun Gothic Semilight"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>为</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>此功能的菜</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Malgun Gothic Semilight"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>单</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>ID授</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Malgun Gothic Semilight"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>权</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>的角色。
-如果未按住，</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Malgun Gothic Semilight"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>则</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>屏幕将</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Malgun Gothic Semilight"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>变为错误</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>屏幕。
-2.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Malgun Gothic Semilight"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>检查产</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>品版本ID是否正</t>
+          <t>商品的版本ID是否正</t>
         </r>
         <r>
           <rPr>
@@ -612,7 +779,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>3.</t>
+          <t>2、</t>
         </r>
         <r>
           <rPr>
@@ -622,7 +789,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>检查</t>
+          <t>确认</t>
         </r>
         <r>
           <rPr>
@@ -632,27 +799,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>特定于</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Malgun Gothic Semilight"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>产</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>品的属性是否正</t>
+          <t>商品固有属性是否正</t>
         </r>
         <r>
           <rPr>
@@ -673,27 +820,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>4.注册新</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Malgun Gothic Semilight"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>产</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>品的版本信息</t>
+          <t>3、注册新商品的版本信息</t>
         </r>
       </text>
     </comment>
@@ -702,12 +829,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>作成者</author>
+    <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F8" authorId="0" shapeId="0">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -718,7 +845,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -729,13 +856,13 @@
             <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
-１、分析</t>
+1.分析</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Malgun Gothic Semilight"/>
+            <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
@@ -749,13 +876,13 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>入文件，</t>
+          <t>入的文件，</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Malgun Gothic Semilight"/>
+            <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
@@ -769,13 +896,13 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>内容，否者返回</t>
+          <t>内容或返回</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Malgun Gothic Semilight"/>
+            <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
@@ -790,13 +917,13 @@
             <charset val="128"/>
           </rPr>
           <t>界面
-２、从文件中</t>
+2.从文件</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Malgun Gothic Semilight"/>
+            <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
@@ -1146,36 +1273,6 @@
   </si>
   <si>
     <t>・戻り値を商品バージョンIDのプルダウンリストに生成します。</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>・選択したバージョンを基にバージョン情報詳細画面へ遷移する
-[パラメータ]
-バージョンのID</t>
-    <rPh sb="0" eb="2">
-      <t>イッカツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>センタク</t>
-    </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -1638,41 +1735,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>・下記REST APIを呼び出す。
-[URL]
-　https://&lt;ホスト名&gt;/version/inport/
-[ROUTE]
-version_inport.main
-[パラメータ]
-    {
-       "inport_file": インポートされたファイル(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>导入的文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>)
-    }</t>
-    </r>
-    <rPh sb="0" eb="115">
-      <t>トク</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t xml:space="preserve">・サーバー側処理
 １、商品のバージョンIDが正しいかどうかを確認します
 ２、商品固有属性が正しいかどうかを確認します
@@ -1747,12 +1809,55 @@
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>・選択したバージョンを基にバージョン情報詳細画面へ遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>・下記REST APIを呼び出す。
+[URL]
+　https://&lt;ホスト名&gt;/version/inport/
+[ROUTE]
+version_inport.main
+[パラメータ]
+    {
+       "inport_file": インポートされたファイル
+    }</t>
+    <rPh sb="0" eb="115">
+      <t>トク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1930,6 +2035,21 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Malgun Gothic Semilight"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -2594,15 +2714,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="40% - アクセント 1" xfId="1" builtinId="31"/>
-    <cellStyle name="40% - アクセント 1 2" xfId="2"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="3"/>
-    <cellStyle name="標準 3" xfId="5"/>
-    <cellStyle name="標準 3 2" xfId="4"/>
-    <cellStyle name="標準 3 3" xfId="6"/>
-    <cellStyle name="標準 3 3 2" xfId="8"/>
-    <cellStyle name="標準 3 4" xfId="7"/>
+    <cellStyle name="40% - アクセント 1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="40% - 着色 1" xfId="1" builtinId="31"/>
+    <cellStyle name="標準 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準 3 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準 3 3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準 3 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2644,7 +2764,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 27"/>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2691,13 +2817,19 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="グループ化 2"/>
+        <xdr:cNvPr id="3" name="グループ化 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2456329" y="2568264"/>
-          <a:ext cx="6677485" cy="4943837"/>
+          <a:off x="2456329" y="2479364"/>
+          <a:ext cx="6677485" cy="4759687"/>
           <a:chOff x="2437279" y="2606364"/>
           <a:chExt cx="6677485" cy="4943837"/>
         </a:xfrm>
@@ -2707,7 +2839,7 @@
           <xdr:cNvPr id="37" name="テキスト ボックス 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2770,7 +2902,7 @@
           <xdr:cNvPr id="39" name="テキスト ボックス 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000034000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2833,7 +2965,7 @@
           <xdr:cNvPr id="40" name="テキスト ボックス 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000035000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2896,7 +3028,7 @@
           <xdr:cNvPr id="41" name="テキスト ボックス 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2959,7 +3091,7 @@
           <xdr:cNvPr id="42" name="テキスト ボックス 41">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3022,7 +3154,7 @@
           <xdr:cNvPr id="43" name="テキスト ボックス 42">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3085,7 +3217,7 @@
           <xdr:cNvPr id="44" name="テキスト ボックス 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000020000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3148,7 +3280,7 @@
           <xdr:cNvPr id="45" name="テキスト ボックス 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000021000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3211,7 +3343,7 @@
           <xdr:cNvPr id="46" name="テキスト ボックス 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000022000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3274,7 +3406,7 @@
           <xdr:cNvPr id="47" name="テキスト ボックス 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000023000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3337,7 +3469,7 @@
           <xdr:cNvPr id="48" name="テキスト ボックス 47">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000014000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3400,7 +3532,7 @@
           <xdr:cNvPr id="49" name="テキスト ボックス 48">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000014000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3463,7 +3595,7 @@
           <xdr:cNvPr id="50" name="テキスト ボックス 49">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000014000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3526,7 +3658,7 @@
           <xdr:cNvPr id="51" name="テキスト ボックス 50">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000014000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3589,7 +3721,7 @@
           <xdr:cNvPr id="52" name="テキスト ボックス 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000014000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3652,7 +3784,7 @@
           <xdr:cNvPr id="53" name="テキスト ボックス 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000014000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3715,7 +3847,7 @@
           <xdr:cNvPr id="54" name="テキスト ボックス 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000014000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3778,7 +3910,7 @@
           <xdr:cNvPr id="55" name="テキスト ボックス 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000014000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3852,7 +3984,7 @@
         <xdr:cNvPr id="56" name="テキスト ボックス 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3932,7 +4064,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28"/>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3982,7 +4120,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4060,7 +4198,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4138,7 +4276,7 @@
         <xdr:cNvPr id="8" name="テキスト ボックス 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4216,7 +4354,7 @@
         <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4294,7 +4432,7 @@
         <xdr:cNvPr id="12" name="テキスト ボックス 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4374,7 +4512,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28"/>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4424,7 +4568,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4502,7 +4646,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4582,7 +4726,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4625,7 +4775,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5174,7 +5330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N34"/>
   <sheetViews>
@@ -5182,16 +5338,16 @@
       <selection activeCell="A18" sqref="A18:M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="3" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="12" width="9" style="5"/>
-    <col min="13" max="13" width="8.125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="4.625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="8.08203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="4.58203125" style="5" customWidth="1"/>
     <col min="15" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -5467,9 +5623,9 @@
       <c r="M17" s="1"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="1:14" ht="28.5">
+    <row r="18" spans="1:14" ht="28">
       <c r="A18" s="109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="110"/>
       <c r="C18" s="110"/>
@@ -5485,7 +5641,7 @@
       <c r="M18" s="110"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="1:14" ht="28.5">
+    <row r="19" spans="1:14" ht="28">
       <c r="A19" s="109" t="s">
         <v>22</v>
       </c>
@@ -5755,30 +5911,30 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="6.75" style="36" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="37" customWidth="1"/>
     <col min="3" max="3" width="17.75" style="31" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="31" customWidth="1"/>
     <col min="5" max="5" width="30.75" style="101" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.58203125" style="31" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.75" style="31" customWidth="1"/>
     <col min="8" max="8" width="45.75" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="3.125" style="31"/>
+    <col min="9" max="16384" width="3.08203125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="27" customFormat="1" ht="27">
+    <row r="2" spans="1:8" s="27" customFormat="1" ht="26">
       <c r="A2" s="20"/>
       <c r="B2" s="21" t="s">
         <v>7</v>
@@ -5802,16 +5958,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="29" customFormat="1" ht="27">
+    <row r="3" spans="1:8" s="29" customFormat="1" ht="26">
       <c r="A3" s="28"/>
       <c r="B3" s="87">
         <v>1</v>
       </c>
       <c r="C3" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="88" t="s">
         <v>98</v>
-      </c>
-      <c r="D3" s="88" t="s">
-        <v>99</v>
       </c>
       <c r="E3" s="100" t="s">
         <v>18</v>
@@ -5832,13 +5988,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" s="100" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="34" t="s">
         <v>18</v>
@@ -6085,7 +6241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6095,18 +6251,18 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="6.75" style="45" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="46" customWidth="1"/>
     <col min="3" max="3" width="26.75" style="44" customWidth="1"/>
-    <col min="4" max="4" width="36.125" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.08203125" style="44" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.75" style="47" customWidth="1"/>
     <col min="6" max="6" width="78.5" style="44" customWidth="1"/>
-    <col min="7" max="16384" width="3.125" style="44"/>
+    <col min="7" max="16384" width="3.08203125" style="44"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="41" customFormat="1" ht="27">
+    <row r="2" spans="1:6" s="41" customFormat="1" ht="26">
       <c r="A2" s="38"/>
       <c r="B2" s="21" t="s">
         <v>10</v>
@@ -6130,16 +6286,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E3" s="43">
         <v>1</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6282,7 +6438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -6290,7 +6446,7 @@
       <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="16384" width="9" style="95"/>
   </cols>
@@ -6302,15 +6458,15 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="16384" width="9" style="96"/>
   </cols>
@@ -6323,7 +6479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6333,11 +6489,11 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="14" style="15" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="22.08203125" style="15" customWidth="1"/>
     <col min="4" max="4" width="129.75" style="15" customWidth="1"/>
     <col min="5" max="16384" width="9" style="15"/>
   </cols>
@@ -6356,12 +6512,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5">
+    <row r="3" spans="1:4" ht="17">
       <c r="A3" s="98">
         <v>44120</v>
       </c>
       <c r="B3" s="97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="50" t="s">
         <v>23</v>
@@ -6434,12 +6590,12 @@
   <sheetProtection sheet="1" formatCells="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6449,7 +6605,7 @@
       <selection activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
     <col min="2" max="16384" width="3.5" style="5"/>
@@ -6552,7 +6708,7 @@
     <row r="4" spans="2:47">
       <c r="B4" s="6"/>
       <c r="C4" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="14"/>
@@ -6646,7 +6802,7 @@
     <row r="6" spans="2:47">
       <c r="B6" s="6"/>
       <c r="C6" s="99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="14"/>
@@ -8457,13 +8613,13 @@
   <sheetProtection sheet="1" formatCells="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8473,20 +8629,20 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="6.75" style="36" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="37" customWidth="1"/>
     <col min="3" max="3" width="17.75" style="31" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="31" customWidth="1"/>
     <col min="5" max="5" width="30.75" style="101" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.58203125" style="31" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.75" style="31" customWidth="1"/>
     <col min="8" max="8" width="45.75" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="3.125" style="31"/>
+    <col min="9" max="16384" width="3.08203125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="27" customFormat="1" ht="27">
+    <row r="2" spans="1:8" s="27" customFormat="1" ht="26">
       <c r="A2" s="20"/>
       <c r="B2" s="21" t="s">
         <v>7</v>
@@ -8516,10 +8672,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="100" t="s">
         <v>18</v>
@@ -8534,13 +8690,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27">
+    <row r="4" spans="1:8" ht="26">
       <c r="A4" s="30"/>
       <c r="B4" s="87">
         <v>2</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="88" t="s">
         <v>24</v>
@@ -8558,16 +8714,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="54">
+    <row r="5" spans="1:8" ht="52">
       <c r="A5" s="30"/>
       <c r="B5" s="87">
         <v>3</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="100" t="s">
         <v>18</v>
@@ -8576,7 +8732,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H5" s="34" t="s">
         <v>18</v>
@@ -8588,10 +8744,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="100" t="s">
         <v>18</v>
@@ -8603,40 +8759,40 @@
         <v>18</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="67.5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="65">
       <c r="A7" s="30"/>
       <c r="B7" s="87">
         <v>5</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="100" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="30"/>
       <c r="B8" s="87">
         <v>6</v>
       </c>
       <c r="C8" s="89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="88" t="s">
         <v>24</v>
@@ -8654,37 +8810,37 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="27">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="32"/>
       <c r="B9" s="87">
         <v>7</v>
       </c>
       <c r="C9" s="88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="100" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="27">
+    <row r="10" spans="1:8" ht="26">
       <c r="A10" s="32"/>
       <c r="B10" s="87">
         <v>8</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="88" t="s">
         <v>24</v>
@@ -8702,28 +8858,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="67.5">
+    <row r="11" spans="1:8" ht="65">
       <c r="A11" s="32"/>
       <c r="B11" s="87">
         <v>9</v>
       </c>
       <c r="C11" s="88" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="100" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -8732,10 +8888,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="100" t="s">
         <v>18</v>
@@ -8756,7 +8912,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="88" t="s">
         <v>24</v>
@@ -8774,16 +8930,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="27">
+    <row r="14" spans="1:8" ht="26">
       <c r="A14" s="30"/>
       <c r="B14" s="87">
         <v>12</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="100" t="s">
         <v>18</v>
@@ -8804,10 +8960,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="100" t="s">
         <v>18</v>
@@ -8822,16 +8978,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="27">
+    <row r="16" spans="1:8" ht="26">
       <c r="A16" s="81"/>
       <c r="B16" s="87">
         <v>14</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="100" t="s">
         <v>18</v>
@@ -8852,10 +9008,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="100" t="s">
         <v>18</v>
@@ -8876,10 +9032,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="100" t="s">
         <v>18</v>
@@ -8901,7 +9057,7 @@
       </c>
       <c r="C19" s="102"/>
       <c r="D19" s="88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="100" t="s">
         <v>18</v>
@@ -8922,10 +9078,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="100" t="s">
         <v>18</v>
@@ -8946,10 +9102,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="88" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="100" t="s">
         <v>18</v>
@@ -9029,28 +9185,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="6.75" style="45" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="46" customWidth="1"/>
     <col min="3" max="3" width="26.75" style="44" customWidth="1"/>
-    <col min="4" max="4" width="36.125" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.08203125" style="44" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.75" style="47" customWidth="1"/>
     <col min="6" max="6" width="78.5" style="44" customWidth="1"/>
-    <col min="7" max="16384" width="3.125" style="44"/>
+    <col min="7" max="16384" width="3.08203125" style="44"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="41" customFormat="1" ht="27">
+    <row r="2" spans="1:6" s="41" customFormat="1" ht="26">
       <c r="A2" s="38"/>
       <c r="B2" s="21" t="s">
         <v>10</v>
@@ -9068,7 +9224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="67.5">
+    <row r="3" spans="1:6" ht="65">
       <c r="A3" s="74"/>
       <c r="B3" s="57" t="s">
         <v>20</v>
@@ -9083,10 +9239,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="78">
       <c r="A4" s="42"/>
       <c r="B4" s="61"/>
       <c r="C4" s="62"/>
@@ -9098,7 +9254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="40.5">
+    <row r="5" spans="1:6" ht="39">
       <c r="A5" s="42"/>
       <c r="B5" s="61"/>
       <c r="C5" s="62"/>
@@ -9107,7 +9263,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9119,10 +9275,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="94.5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="91">
       <c r="A7" s="42"/>
       <c r="B7" s="57">
         <v>3</v>
@@ -9137,10 +9293,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26">
       <c r="A8" s="42"/>
       <c r="B8" s="61"/>
       <c r="C8" s="62"/>
@@ -9164,7 +9320,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="94.5">
+    <row r="10" spans="1:6" ht="91">
       <c r="A10" s="42"/>
       <c r="B10" s="57">
         <v>5</v>
@@ -9182,7 +9338,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27">
+    <row r="11" spans="1:6" ht="26">
       <c r="A11" s="30"/>
       <c r="B11" s="61"/>
       <c r="C11" s="62"/>
@@ -9206,25 +9362,25 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="94.5">
+    <row r="13" spans="1:6" ht="91">
       <c r="A13" s="42"/>
       <c r="B13" s="57">
         <v>9</v>
       </c>
       <c r="C13" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="59" t="s">
         <v>104</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>105</v>
       </c>
       <c r="E13" s="43">
         <v>1</v>
       </c>
       <c r="F13" s="60" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="27">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="26">
       <c r="A14" s="42"/>
       <c r="B14" s="61"/>
       <c r="C14" s="62"/>
@@ -9233,7 +9389,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -9245,46 +9401,46 @@
         <v>3</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="40.5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="42"/>
       <c r="B16" s="43">
         <v>18</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E16" s="43">
         <v>1</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="189">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="182">
       <c r="A17" s="42"/>
       <c r="B17" s="57">
         <v>19</v>
       </c>
       <c r="C17" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="59" t="s">
         <v>111</v>
-      </c>
-      <c r="D17" s="59" t="s">
-        <v>112</v>
       </c>
       <c r="E17" s="43">
         <v>1</v>
       </c>
       <c r="F17" s="60" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="67.5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="65">
       <c r="A18" s="42"/>
       <c r="B18" s="61"/>
       <c r="C18" s="62"/>
@@ -9293,7 +9449,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="70.5" customHeight="1">
@@ -9305,7 +9461,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -9321,7 +9477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9331,7 +9487,7 @@
       <selection activeCell="AU13" sqref="AU13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
     <col min="2" max="16384" width="3.5" style="5"/>
@@ -9434,7 +9590,7 @@
     <row r="4" spans="2:47">
       <c r="B4" s="6"/>
       <c r="C4" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="14"/>
@@ -9528,7 +9684,7 @@
     <row r="6" spans="2:47">
       <c r="B6" s="6"/>
       <c r="C6" s="99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="14"/>
@@ -11339,36 +11495,36 @@
   <sheetProtection sheet="1" formatCells="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="6.75" style="36" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="37" customWidth="1"/>
     <col min="3" max="3" width="17.75" style="31" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="31" customWidth="1"/>
     <col min="5" max="5" width="30.75" style="101" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.58203125" style="31" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.75" style="31" customWidth="1"/>
     <col min="8" max="8" width="45.75" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="3.125" style="31"/>
+    <col min="9" max="16384" width="3.08203125" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="27" customFormat="1" ht="27">
+    <row r="2" spans="1:8" s="27" customFormat="1" ht="26">
       <c r="A2" s="20"/>
       <c r="B2" s="21" t="s">
         <v>7</v>
@@ -11392,16 +11548,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="29" customFormat="1" ht="67.5">
+    <row r="3" spans="1:8" s="29" customFormat="1" ht="52">
       <c r="A3" s="28"/>
       <c r="B3" s="87">
         <v>1</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" s="88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" s="100" t="s">
         <v>18</v>
@@ -11422,13 +11578,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="100" t="s">
         <v>88</v>
-      </c>
-      <c r="D4" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="100" t="s">
-        <v>89</v>
       </c>
       <c r="F4" s="34" t="s">
         <v>18</v>
@@ -11446,19 +11602,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="100" t="s">
+      <c r="F5" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="G5" s="34" t="s">
         <v>93</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>94</v>
       </c>
       <c r="H5" s="34" t="s">
         <v>18</v>
@@ -11470,10 +11626,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="88" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="100" t="s">
         <v>18</v>
@@ -11485,7 +11641,7 @@
         <v>18</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -11494,10 +11650,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" s="100" t="s">
         <v>18</v>
@@ -11509,7 +11665,7 @@
         <v>18</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -11717,28 +11873,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="6.75" style="45" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="46" customWidth="1"/>
     <col min="3" max="3" width="26.75" style="44" customWidth="1"/>
-    <col min="4" max="4" width="36.125" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.08203125" style="44" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.75" style="47" customWidth="1"/>
     <col min="6" max="6" width="78.5" style="44" customWidth="1"/>
-    <col min="7" max="16384" width="3.125" style="44"/>
+    <col min="7" max="16384" width="3.08203125" style="44"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="41" customFormat="1" ht="27">
+    <row r="2" spans="1:6" s="41" customFormat="1" ht="26">
       <c r="A2" s="38"/>
       <c r="B2" s="21" t="s">
         <v>10</v>
@@ -11762,16 +11918,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="59" t="s">
         <v>120</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>122</v>
       </c>
       <c r="E3" s="43">
         <v>1</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11798,25 +11954,25 @@
       <c r="E6" s="87"/>
       <c r="F6" s="60"/>
     </row>
-    <row r="7" spans="1:6" ht="124.5">
+    <row r="7" spans="1:6" ht="117">
       <c r="A7" s="42"/>
       <c r="B7" s="57">
         <v>5</v>
       </c>
       <c r="C7" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="59" t="s">
         <v>116</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>117</v>
       </c>
       <c r="E7" s="43">
         <v>1</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="54">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="52">
       <c r="A8" s="42"/>
       <c r="B8" s="61"/>
       <c r="C8" s="62"/>
@@ -11825,7 +11981,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -11837,7 +11993,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -11933,7 +12089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet10">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11943,7 +12099,7 @@
       <selection activeCell="AI15" sqref="AI15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
     <col min="2" max="16384" width="3.5" style="5"/>
@@ -12046,7 +12202,7 @@
     <row r="4" spans="2:47">
       <c r="B4" s="6"/>
       <c r="C4" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="14"/>
@@ -12140,7 +12296,7 @@
     <row r="6" spans="2:47">
       <c r="B6" s="6"/>
       <c r="C6" s="99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="14"/>
@@ -13951,7 +14107,7 @@
   <sheetProtection sheet="1" formatCells="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>